--- a/loadtest.xlsx
+++ b/loadtest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4246BDB3-A48B-49B1-9C86-B287EB43C5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D813D8-8B74-4D82-8E46-DA651BE5A292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3313,7 +3313,7 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/loadtest.xlsx
+++ b/loadtest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D813D8-8B74-4D82-8E46-DA651BE5A292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE416243-8B3C-4DA5-AEC0-E144F115B3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,7 +844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,6 +903,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFCCCCDC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="11">
@@ -979,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1002,14 +1010,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1021,29 +1031,38 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,38 +1663,38 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -1690,12 +1709,12 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1759,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1755,17 +1774,17 @@
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1797,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1791,13 +1810,13 @@
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1829,7 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1823,21 +1842,21 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1869,7 @@
       <c r="D11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1865,17 +1884,17 @@
       <c r="I11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1888,7 +1907,7 @@
       <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1901,13 +1920,13 @@
       <c r="I12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1939,7 @@
       <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1933,13 +1952,13 @@
       <c r="I13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1971,7 @@
       <c r="D14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1967,17 +1986,17 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1990,7 +2009,7 @@
       <c r="D15" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2003,13 +2022,13 @@
       <c r="I15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2022,7 +2041,7 @@
       <c r="D16" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2035,13 +2054,13 @@
       <c r="I16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2073,7 @@
       <c r="D17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2069,17 +2088,17 @@
       <c r="I17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2111,7 @@
       <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
@@ -2105,13 +2124,13 @@
       <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2143,7 @@
       <c r="D19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
@@ -2137,36 +2156,36 @@
       <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="10" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -2181,12 +2200,12 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2218,7 +2237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2231,7 +2250,7 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2246,17 +2265,17 @@
       <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2269,7 +2288,7 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2282,13 +2301,13 @@
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2301,7 +2320,7 @@
       <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2314,13 +2333,13 @@
       <c r="I28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2333,7 +2352,7 @@
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2348,17 +2367,17 @@
       <c r="I29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2371,7 +2390,7 @@
       <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2384,13 +2403,13 @@
       <c r="I30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2403,7 +2422,7 @@
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="3" t="s">
         <v>64</v>
       </c>
@@ -2416,13 +2435,13 @@
       <c r="I31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -2435,7 +2454,7 @@
       <c r="D32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2450,17 +2469,17 @@
       <c r="I32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2473,7 +2492,7 @@
       <c r="D33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2486,13 +2505,13 @@
       <c r="I33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -2505,7 +2524,7 @@
       <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="5" t="s">
         <v>64</v>
       </c>
@@ -2518,13 +2537,13 @@
       <c r="I34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2537,7 +2556,7 @@
       <c r="D35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2552,17 +2571,17 @@
       <c r="I35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2575,7 +2594,7 @@
       <c r="D36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2588,13 +2607,13 @@
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2607,7 +2626,7 @@
       <c r="D37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2620,13 +2639,13 @@
       <c r="I37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -2639,7 +2658,7 @@
       <c r="D38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2654,17 +2673,17 @@
       <c r="I38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2677,7 +2696,7 @@
       <c r="D39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2690,13 +2709,13 @@
       <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2709,7 +2728,7 @@
       <c r="D40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2722,39 +2741,39 @@
       <c r="I40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="10" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>15</v>
       </c>
@@ -2769,12 +2788,12 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2806,7 +2825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -2819,7 +2838,7 @@
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2834,17 +2853,17 @@
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2857,7 +2876,7 @@
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2870,13 +2889,13 @@
       <c r="I51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -2889,7 +2908,7 @@
       <c r="D52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="3" t="s">
         <v>43</v>
       </c>
@@ -2902,46 +2921,16 @@
       <c r="I52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -2954,7 +2943,7 @@
       <c r="D56" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2969,17 +2958,17 @@
       <c r="I56" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -2992,7 +2981,7 @@
       <c r="D57" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
@@ -3005,13 +2994,13 @@
       <c r="I57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -3024,7 +3013,7 @@
       <c r="D58" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="1" t="s">
         <v>43</v>
       </c>
@@ -3037,13 +3026,13 @@
       <c r="I58" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -3056,7 +3045,7 @@
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3071,17 +3060,17 @@
       <c r="I59" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3094,7 +3083,7 @@
       <c r="D60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3107,13 +3096,13 @@
       <c r="I60" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -3126,7 +3115,7 @@
       <c r="D61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="1" t="s">
         <v>43</v>
       </c>
@@ -3139,13 +3128,13 @@
       <c r="I61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -3158,7 +3147,7 @@
       <c r="D62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3173,17 +3162,17 @@
       <c r="I62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="K62" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3196,7 +3185,7 @@
       <c r="D63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3209,13 +3198,13 @@
       <c r="I63" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -3228,7 +3217,7 @@
       <c r="D64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="1" t="s">
         <v>43</v>
       </c>
@@ -3241,15 +3230,51 @@
       <c r="I64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-    </row>
-    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:N52"/>
+    <mergeCell ref="K29:N31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K32:N34"/>
+    <mergeCell ref="K47:N48"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="K35:N37"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="K5:N7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K11:N13"/>
+    <mergeCell ref="K59:N61"/>
+    <mergeCell ref="K56:N58"/>
+    <mergeCell ref="K38:N40"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:N28"/>
     <mergeCell ref="K62:N64"/>
     <mergeCell ref="J56:J58"/>
     <mergeCell ref="E56:E58"/>
@@ -3265,43 +3290,7 @@
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="J62:J64"/>
     <mergeCell ref="K23:N24"/>
-    <mergeCell ref="K5:N7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K11:N13"/>
-    <mergeCell ref="K59:N61"/>
-    <mergeCell ref="K56:N58"/>
     <mergeCell ref="E29:E31"/>
-    <mergeCell ref="K38:N40"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="K35:N37"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:N52"/>
-    <mergeCell ref="K29:N31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="K32:N34"/>
-    <mergeCell ref="K47:N48"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:N28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3313,31 +3302,31 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="15" width="11.21875" customWidth="1"/>
+    <col min="1" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="15" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="18" t="s">
         <v>34</v>
       </c>
@@ -3345,7 +3334,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -3365,7 +3354,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3401,325 +3390,325 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="18" t="s">
         <v>34</v>
       </c>
@@ -3727,7 +3716,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -3747,7 +3736,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3783,367 +3772,367 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="8"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="8"/>
       <c r="T17" s="5"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="5"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-    </row>
-    <row r="19" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="18" t="s">
         <v>34</v>
       </c>
@@ -4151,7 +4140,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
@@ -4171,7 +4160,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4207,326 +4196,349 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:N33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:N36"/>
+    <mergeCell ref="K4:N6"/>
+    <mergeCell ref="K1:N3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:N12"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:N9"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="X16:X18"/>
+    <mergeCell ref="Y16:AB18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="F26:J26"/>
@@ -4534,37 +4546,15 @@
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:N30"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="X16:X18"/>
-    <mergeCell ref="Y16:AB18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:N12"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:N9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:N6"/>
-    <mergeCell ref="K1:N3"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:N33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:N36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4576,38 +4566,38 @@
       <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -4622,12 +4612,12 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4659,7 +4649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -4672,7 +4662,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -4687,17 +4677,17 @@
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4700,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4723,13 +4713,13 @@
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4742,7 +4732,7 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4755,21 +4745,21 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4782,7 +4772,7 @@
       <c r="D11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -4797,17 +4787,17 @@
       <c r="I11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4820,7 +4810,7 @@
       <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4833,13 +4823,13 @@
       <c r="I12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4852,7 +4842,7 @@
       <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4865,13 +4855,13 @@
       <c r="I13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -4884,7 +4874,7 @@
       <c r="D14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4899,17 +4889,17 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4922,7 +4912,7 @@
       <c r="D15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4935,13 +4925,13 @@
       <c r="I15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -4954,7 +4944,7 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
@@ -4967,13 +4957,13 @@
       <c r="I16" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -4986,7 +4976,7 @@
       <c r="D17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -5001,17 +4991,17 @@
       <c r="I17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5024,7 +5014,7 @@
       <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
@@ -5037,13 +5027,13 @@
       <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -5056,7 +5046,7 @@
       <c r="D19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
@@ -5069,36 +5059,36 @@
       <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="10" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -5113,12 +5103,12 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -5150,7 +5140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -5163,7 +5153,7 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -5178,17 +5168,17 @@
       <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -5201,7 +5191,7 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
@@ -5214,13 +5204,13 @@
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -5233,7 +5223,7 @@
       <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="3" t="s">
         <v>64</v>
       </c>
@@ -5246,13 +5236,13 @@
       <c r="I28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -5265,7 +5255,7 @@
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -5280,17 +5270,17 @@
       <c r="I29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -5303,7 +5293,7 @@
       <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
@@ -5316,13 +5306,13 @@
       <c r="I30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -5335,7 +5325,7 @@
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="3" t="s">
         <v>64</v>
       </c>
@@ -5348,13 +5338,13 @@
       <c r="I31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -5367,7 +5357,7 @@
       <c r="D32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -5382,17 +5372,17 @@
       <c r="I32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5405,7 +5395,7 @@
       <c r="D33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5418,13 +5408,13 @@
       <c r="I33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -5437,7 +5427,7 @@
       <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="5" t="s">
         <v>64</v>
       </c>
@@ -5450,13 +5440,13 @@
       <c r="I34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -5469,7 +5459,7 @@
       <c r="D35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -5484,17 +5474,17 @@
       <c r="I35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5507,7 +5497,7 @@
       <c r="D36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5520,13 +5510,13 @@
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -5539,7 +5529,7 @@
       <c r="D37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
@@ -5552,13 +5542,13 @@
       <c r="I37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -5571,7 +5561,7 @@
       <c r="D38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -5586,17 +5576,17 @@
       <c r="I38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -5609,7 +5599,7 @@
       <c r="D39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
@@ -5622,13 +5612,13 @@
       <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5641,7 +5631,7 @@
       <c r="D40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5654,39 +5644,39 @@
       <c r="I40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="10" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>15</v>
       </c>
@@ -5701,12 +5691,12 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -5738,7 +5728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -5751,7 +5741,7 @@
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -5766,17 +5756,17 @@
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -5789,7 +5779,7 @@
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
@@ -5802,13 +5792,13 @@
       <c r="I51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5821,7 +5811,7 @@
       <c r="D52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5834,46 +5824,16 @@
       <c r="I52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -5886,7 +5846,7 @@
       <c r="D56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -5901,17 +5861,17 @@
       <c r="I56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -5924,7 +5884,7 @@
       <c r="D57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
@@ -5937,13 +5897,13 @@
       <c r="I57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -5956,7 +5916,7 @@
       <c r="D58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="3" t="s">
         <v>43</v>
       </c>
@@ -5969,56 +5929,96 @@
       <c r="I58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J59" s="7"/>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K62" s="9" t="s">
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-    </row>
-    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:N7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:N13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:N28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:N31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:N34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:N37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:N40"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="K47:N48"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:J48"/>
     <mergeCell ref="K59:N61"/>
     <mergeCell ref="K62:N64"/>
     <mergeCell ref="E50:E52"/>
@@ -6027,46 +6027,6 @@
     <mergeCell ref="E56:E58"/>
     <mergeCell ref="J56:J58"/>
     <mergeCell ref="K56:N58"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:N40"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="K47:N48"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:N34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:N37"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:N28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:N31"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:N13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/loadtest.xlsx
+++ b/loadtest.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE416243-8B3C-4DA5-AEC0-E144F115B3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A490BC-FB07-4C8D-BBEB-7EE59303F3A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="283">
   <si>
     <t>p50 (caffeine)</t>
   </si>
@@ -838,6 +838,39 @@
   </si>
   <si>
     <t>188 ms</t>
+  </si>
+  <si>
+    <t>7.3k ops/s</t>
+  </si>
+  <si>
+    <t>0.00569 ms</t>
+  </si>
+  <si>
+    <t>0.00294 ms</t>
+  </si>
+  <si>
+    <t>0.00991 ms</t>
+  </si>
+  <si>
+    <t>0.00452 ms</t>
+  </si>
+  <si>
+    <t>0.0441 ms</t>
+  </si>
+  <si>
+    <t>3.98 ms</t>
+  </si>
+  <si>
+    <t>6.88 ms</t>
+  </si>
+  <si>
+    <t>122 ms</t>
+  </si>
+  <si>
+    <t>9.86 ms</t>
+  </si>
+  <si>
+    <t>198 ms</t>
   </si>
 </sst>
 </file>
@@ -1010,14 +1043,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1034,6 +1076,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,23 +1091,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,58 +1696,58 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="9" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +1779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1792,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1774,17 +1807,17 @@
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1797,7 +1830,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1810,13 +1843,13 @@
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1862,7 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1842,21 +1875,21 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1902,7 @@
       <c r="D11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="12" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1884,17 +1917,17 @@
       <c r="I11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1907,7 +1940,7 @@
       <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1920,13 +1953,13 @@
       <c r="I12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +1972,7 @@
       <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1952,13 +1985,13 @@
       <c r="I13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +2004,7 @@
       <c r="D14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1986,17 +2019,17 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2042,7 @@
       <c r="D15" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2022,13 +2055,13 @@
       <c r="I15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +2074,7 @@
       <c r="D16" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2054,13 +2087,13 @@
       <c r="I16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2106,7 @@
       <c r="D17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2088,17 +2121,17 @@
       <c r="I17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2111,7 +2144,7 @@
       <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
@@ -2124,13 +2157,13 @@
       <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2176,7 @@
       <c r="D19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
@@ -2156,56 +2189,56 @@
       <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="9" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2250,7 +2283,7 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2265,17 +2298,17 @@
       <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2288,7 +2321,7 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2301,13 +2334,13 @@
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2353,7 @@
       <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2333,13 +2366,13 @@
       <c r="I28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2352,7 +2385,7 @@
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="12" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2367,17 +2400,17 @@
       <c r="I29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2423,7 @@
       <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2403,13 +2436,13 @@
       <c r="I30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2422,7 +2455,7 @@
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="3" t="s">
         <v>64</v>
       </c>
@@ -2435,13 +2468,13 @@
       <c r="I31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -2454,7 +2487,7 @@
       <c r="D32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="12" t="s">
         <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2469,17 +2502,17 @@
       <c r="I32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2492,7 +2525,7 @@
       <c r="D33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2505,13 +2538,13 @@
       <c r="I33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -2524,7 +2557,7 @@
       <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="5" t="s">
         <v>64</v>
       </c>
@@ -2537,13 +2570,13 @@
       <c r="I34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2556,7 +2589,7 @@
       <c r="D35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2571,17 +2604,17 @@
       <c r="I35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2594,7 +2627,7 @@
       <c r="D36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2607,13 +2640,13 @@
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2626,7 +2659,7 @@
       <c r="D37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2639,13 +2672,13 @@
       <c r="I37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -2658,7 +2691,7 @@
       <c r="D38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2673,17 +2706,17 @@
       <c r="I38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2696,7 +2729,7 @@
       <c r="D39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2709,13 +2742,13 @@
       <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2728,7 +2761,7 @@
       <c r="D40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2741,59 +2774,59 @@
       <c r="I40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="9" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2825,7 +2858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -2838,7 +2871,7 @@
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2853,17 +2886,17 @@
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2876,7 +2909,7 @@
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2889,13 +2922,13 @@
       <c r="I51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -2908,7 +2941,7 @@
       <c r="D52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="3" t="s">
         <v>43</v>
       </c>
@@ -2921,16 +2954,16 @@
       <c r="I52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -2943,7 +2976,7 @@
       <c r="D56" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2958,17 +2991,17 @@
       <c r="I56" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -2981,7 +3014,7 @@
       <c r="D57" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
@@ -2994,13 +3027,13 @@
       <c r="I57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -3013,7 +3046,7 @@
       <c r="D58" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="1" t="s">
         <v>43</v>
       </c>
@@ -3026,13 +3059,13 @@
       <c r="I58" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-    </row>
-    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3078,7 @@
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3060,17 +3093,17 @@
       <c r="I59" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3083,7 +3116,7 @@
       <c r="D60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3096,13 +3129,13 @@
       <c r="I60" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -3115,7 +3148,7 @@
       <c r="D61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="1" t="s">
         <v>43</v>
       </c>
@@ -3128,13 +3161,13 @@
       <c r="I61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+    </row>
+    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -3147,7 +3180,7 @@
       <c r="D62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3162,17 +3195,17 @@
       <c r="I62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-    </row>
-    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3185,7 +3218,7 @@
       <c r="D63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3198,13 +3231,13 @@
       <c r="I63" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -3217,7 +3250,7 @@
       <c r="D64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="1" t="s">
         <v>43</v>
       </c>
@@ -3230,28 +3263,27 @@
       <c r="I64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-    </row>
-    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K32:N34"/>
+    <mergeCell ref="K47:N48"/>
+    <mergeCell ref="K35:N37"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="F48:J48"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:N52"/>
-    <mergeCell ref="K29:N31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K32:N34"/>
-    <mergeCell ref="K47:N48"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="K35:N37"/>
     <mergeCell ref="K2:N3"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:E24"/>
@@ -3273,8 +3305,9 @@
     <mergeCell ref="K56:N58"/>
     <mergeCell ref="K38:N40"/>
     <mergeCell ref="K17:N19"/>
-    <mergeCell ref="J26:J28"/>
     <mergeCell ref="K26:N28"/>
+    <mergeCell ref="K50:N52"/>
+    <mergeCell ref="K29:N31"/>
     <mergeCell ref="K62:N64"/>
     <mergeCell ref="J56:J58"/>
     <mergeCell ref="E56:E58"/>
@@ -3301,60 +3334,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C34ECFC-0972-4818-B8E8-830E30CFF2A4}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="15" width="11.28515625" customWidth="1"/>
+    <col min="1" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="15" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3385,358 +3418,358 @@
       <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3767,400 +3800,400 @@
       <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="8"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-    </row>
-    <row r="17" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="8"/>
+      <c r="S17" s="12"/>
       <c r="T17" s="5"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-    </row>
-    <row r="18" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="8"/>
+      <c r="S18" s="12"/>
       <c r="T18" s="5"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-    </row>
-    <row r="19" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4191,323 +4224,323 @@
       <c r="J27" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K34" s="8" t="s">
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="22" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="G35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="23" t="s">
+      <c r="B36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="22" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G36" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
     <mergeCell ref="K4:N6"/>
@@ -4566,58 +4599,58 @@
       <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="9" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4649,7 +4682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -4662,7 +4695,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -4677,17 +4710,17 @@
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4700,7 +4733,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4713,13 +4746,13 @@
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4732,7 +4765,7 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4745,21 +4778,21 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4772,7 +4805,7 @@
       <c r="D11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="12" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -4787,17 +4820,17 @@
       <c r="I11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4810,7 +4843,7 @@
       <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4823,13 +4856,13 @@
       <c r="I12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4842,7 +4875,7 @@
       <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4855,13 +4888,13 @@
       <c r="I13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -4874,7 +4907,7 @@
       <c r="D14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4889,17 +4922,17 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4912,7 +4945,7 @@
       <c r="D15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4925,13 +4958,13 @@
       <c r="I15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -4944,7 +4977,7 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
@@ -4957,13 +4990,13 @@
       <c r="I16" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -4976,7 +5009,7 @@
       <c r="D17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -4991,17 +5024,17 @@
       <c r="I17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5047,7 @@
       <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
@@ -5027,13 +5060,13 @@
       <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -5046,7 +5079,7 @@
       <c r="D19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
@@ -5059,56 +5092,56 @@
       <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="9" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -5140,7 +5173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -5153,7 +5186,7 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -5168,17 +5201,17 @@
       <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -5191,7 +5224,7 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
@@ -5204,13 +5237,13 @@
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -5223,7 +5256,7 @@
       <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
         <v>64</v>
       </c>
@@ -5236,13 +5269,13 @@
       <c r="I28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -5255,7 +5288,7 @@
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="12" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -5270,17 +5303,17 @@
       <c r="I29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -5293,7 +5326,7 @@
       <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
@@ -5306,13 +5339,13 @@
       <c r="I30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -5325,7 +5358,7 @@
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="3" t="s">
         <v>64</v>
       </c>
@@ -5338,13 +5371,13 @@
       <c r="I31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -5357,7 +5390,7 @@
       <c r="D32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="12" t="s">
         <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -5372,17 +5405,17 @@
       <c r="I32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5395,7 +5428,7 @@
       <c r="D33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5408,13 +5441,13 @@
       <c r="I33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -5427,7 +5460,7 @@
       <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="5" t="s">
         <v>64</v>
       </c>
@@ -5440,13 +5473,13 @@
       <c r="I34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -5459,7 +5492,7 @@
       <c r="D35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -5474,17 +5507,17 @@
       <c r="I35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5497,7 +5530,7 @@
       <c r="D36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5510,13 +5543,13 @@
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -5529,7 +5562,7 @@
       <c r="D37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
@@ -5542,13 +5575,13 @@
       <c r="I37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -5561,7 +5594,7 @@
       <c r="D38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -5576,17 +5609,17 @@
       <c r="I38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -5599,7 +5632,7 @@
       <c r="D39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
@@ -5612,13 +5645,13 @@
       <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5631,7 +5664,7 @@
       <c r="D40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5644,59 +5677,59 @@
       <c r="I40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="9" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -5728,7 +5761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -5741,7 +5774,7 @@
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -5756,17 +5789,17 @@
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -5779,7 +5812,7 @@
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
@@ -5792,13 +5825,13 @@
       <c r="I51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5811,7 +5844,7 @@
       <c r="D52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5824,16 +5857,16 @@
       <c r="I52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -5846,7 +5879,7 @@
       <c r="D56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -5861,17 +5894,17 @@
       <c r="I56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -5884,7 +5917,7 @@
       <c r="D57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
@@ -5897,13 +5930,13 @@
       <c r="I57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -5916,7 +5949,7 @@
       <c r="D58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="3" t="s">
         <v>43</v>
       </c>
@@ -5929,54 +5962,54 @@
       <c r="I58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-    </row>
-    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J59" s="7"/>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K62" s="8" t="s">
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+    </row>
+    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K62" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-    </row>
-    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-    </row>
-    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="48">
     <mergeCell ref="A2:J2"/>

--- a/loadtest.xlsx
+++ b/loadtest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A490BC-FB07-4C8D-BBEB-7EE59303F3A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25358194-2ADE-41CE-8CB1-CF04C93D99B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3334,8 +3334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C34ECFC-0972-4818-B8E8-830E30CFF2A4}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4434,31 +4434,31 @@
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="9" t="s">
         <v>207</v>
       </c>
       <c r="J34" s="12" t="s">
@@ -4472,29 +4472,29 @@
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="12"/>
@@ -4504,29 +4504,29 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J36" s="12"/>

--- a/loadtest.xlsx
+++ b/loadtest.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25358194-2ADE-41CE-8CB1-CF04C93D99B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D411C8AF-75CF-4630-BB3F-B06860EDB626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sayfa1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="339">
   <si>
     <t>p50 (caffeine)</t>
   </si>
@@ -871,18 +883,194 @@
   </si>
   <si>
     <t>198 ms</t>
+  </si>
+  <si>
+    <t>Skor Arttırma ( Yazma Senaryosu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p99 </t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>p95</t>
+  </si>
+  <si>
+    <t>p99</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Saniyede 2000 yazma ve 10000 okuma isteği</t>
+  </si>
+  <si>
+    <t>Yöntem</t>
+  </si>
+  <si>
+    <t>Senaryo</t>
+  </si>
+  <si>
+    <t>İlk 100 oyuncu sorgulama (Okuma Senaryosu)</t>
+  </si>
+  <si>
+    <t>Ortalama</t>
+  </si>
+  <si>
+    <t>En yüksek</t>
+  </si>
+  <si>
+    <t>En düşük</t>
+  </si>
+  <si>
+    <t>Verim (işlem/sn)</t>
+  </si>
+  <si>
+    <t>Skor Arttırma (Yazma Senaryosu)</t>
+  </si>
+  <si>
+    <t>0.000510</t>
+  </si>
+  <si>
+    <t>0.000596</t>
+  </si>
+  <si>
+    <t>0.000501</t>
+  </si>
+  <si>
+    <t>0.00141</t>
+  </si>
+  <si>
+    <t>0.00727</t>
+  </si>
+  <si>
+    <t>0.000952</t>
+  </si>
+  <si>
+    <t>0.00230</t>
+  </si>
+  <si>
+    <t>0.00952</t>
+  </si>
+  <si>
+    <t>0.000992</t>
+  </si>
+  <si>
+    <t>0.00658</t>
+  </si>
+  <si>
+    <t>0.0345</t>
+  </si>
+  <si>
+    <t>0.00481</t>
+  </si>
+  <si>
+    <t>0.0186</t>
+  </si>
+  <si>
+    <t>0.0954</t>
+  </si>
+  <si>
+    <t>0.00951</t>
+  </si>
+  <si>
+    <t>0.0412</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>0.00990</t>
+  </si>
+  <si>
+    <t>Saniyede 1000 yazmaya karşılık kayıpsız okuma</t>
+  </si>
+  <si>
+    <t>Saniyede 500 yazmaya karşılık kayıpsız okuma</t>
+  </si>
+  <si>
+    <t>0.000583</t>
+  </si>
+  <si>
+    <t>0.00516</t>
+  </si>
+  <si>
+    <t>0.000500</t>
+  </si>
+  <si>
+    <t>0.00122</t>
+  </si>
+  <si>
+    <t>0.00959</t>
+  </si>
+  <si>
+    <t>0.000950</t>
+  </si>
+  <si>
+    <t>0.00196</t>
+  </si>
+  <si>
+    <t>0.00998</t>
+  </si>
+  <si>
+    <t>0.000990</t>
+  </si>
+  <si>
+    <t>0.00582</t>
+  </si>
+  <si>
+    <t>0.00693</t>
+  </si>
+  <si>
+    <t>0.00552</t>
+  </si>
+  <si>
+    <t>0.0148</t>
+  </si>
+  <si>
+    <t>0.0231</t>
+  </si>
+  <si>
+    <t>0.00978</t>
+  </si>
+  <si>
+    <t>0.0240</t>
+  </si>
+  <si>
+    <t>0.0530</t>
+  </si>
+  <si>
+    <t>0.0198</t>
+  </si>
+  <si>
+    <t>0.988</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,8 +1133,83 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,8 +1270,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1016,85 +1297,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="18" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1696,58 +2055,58 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="13" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +2138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +2151,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1807,17 +2166,17 @@
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +2189,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1843,13 +2202,13 @@
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +2221,7 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1875,21 +2234,21 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +2261,7 @@
       <c r="D11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1917,17 +2276,17 @@
       <c r="I11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1940,7 +2299,7 @@
       <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1953,13 +2312,13 @@
       <c r="I12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +2331,7 @@
       <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1985,13 +2344,13 @@
       <c r="I13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2363,7 @@
       <c r="D14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2019,17 +2378,17 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2401,7 @@
       <c r="D15" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2055,13 +2414,13 @@
       <c r="I15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2074,7 +2433,7 @@
       <c r="D16" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2087,13 +2446,13 @@
       <c r="I16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2465,7 @@
       <c r="D17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2121,17 +2480,17 @@
       <c r="I17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2503,7 @@
       <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
@@ -2157,13 +2516,13 @@
       <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2535,7 @@
       <c r="D19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
@@ -2189,56 +2548,56 @@
       <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="13" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2283,7 +2642,7 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2298,17 +2657,17 @@
       <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2321,7 +2680,7 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,13 +2693,13 @@
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2353,7 +2712,7 @@
       <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2366,13 +2725,13 @@
       <c r="I28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2385,7 +2744,7 @@
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2400,17 +2759,17 @@
       <c r="I29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2423,7 +2782,7 @@
       <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2436,13 +2795,13 @@
       <c r="I30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2455,7 +2814,7 @@
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="3" t="s">
         <v>64</v>
       </c>
@@ -2468,13 +2827,13 @@
       <c r="I31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -2487,7 +2846,7 @@
       <c r="D32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="19" t="s">
         <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -2502,17 +2861,17 @@
       <c r="I32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2525,7 +2884,7 @@
       <c r="D33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="5" t="s">
         <v>60</v>
       </c>
@@ -2538,13 +2897,13 @@
       <c r="I33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -2557,7 +2916,7 @@
       <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="5" t="s">
         <v>64</v>
       </c>
@@ -2570,13 +2929,13 @@
       <c r="I34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2589,7 +2948,7 @@
       <c r="D35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2604,17 +2963,17 @@
       <c r="I35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,7 +2986,7 @@
       <c r="D36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2640,13 +2999,13 @@
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2659,7 +3018,7 @@
       <c r="D37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2672,13 +3031,13 @@
       <c r="I37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -2691,7 +3050,7 @@
       <c r="D38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2706,17 +3065,17 @@
       <c r="I38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2729,7 +3088,7 @@
       <c r="D39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2742,13 +3101,13 @@
       <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2761,7 +3120,7 @@
       <c r="D40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2774,59 +3133,59 @@
       <c r="I40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="13" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+    </row>
+    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +3217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -2871,7 +3230,7 @@
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2886,17 +3245,17 @@
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+    </row>
+    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2909,7 +3268,7 @@
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2922,13 +3281,13 @@
       <c r="I51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+    </row>
+    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -2941,7 +3300,7 @@
       <c r="D52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="3" t="s">
         <v>43</v>
       </c>
@@ -2954,16 +3313,16 @@
       <c r="I52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -2976,7 +3335,7 @@
       <c r="D56" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2991,17 +3350,17 @@
       <c r="I56" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -3014,7 +3373,7 @@
       <c r="D57" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
@@ -3027,13 +3386,13 @@
       <c r="I57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+    </row>
+    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,7 +3405,7 @@
       <c r="D58" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="1" t="s">
         <v>43</v>
       </c>
@@ -3059,13 +3418,13 @@
       <c r="I58" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -3078,7 +3437,7 @@
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3093,17 +3452,17 @@
       <c r="I59" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3116,7 +3475,7 @@
       <c r="D60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3129,13 +3488,13 @@
       <c r="I60" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -3148,7 +3507,7 @@
       <c r="D61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="12"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="1" t="s">
         <v>43</v>
       </c>
@@ -3161,13 +3520,13 @@
       <c r="I61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -3180,7 +3539,7 @@
       <c r="D62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3195,17 +3554,17 @@
       <c r="I62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="K62" s="12" t="s">
+      <c r="K62" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3218,7 +3577,7 @@
       <c r="D63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3231,13 +3590,13 @@
       <c r="I63" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+    </row>
+    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -3250,7 +3609,7 @@
       <c r="D64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="1" t="s">
         <v>43</v>
       </c>
@@ -3263,27 +3622,24 @@
       <c r="I64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+    </row>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:J48"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="J50:J52"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K32:N34"/>
-    <mergeCell ref="K47:N48"/>
-    <mergeCell ref="K35:N37"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:J48"/>
     <mergeCell ref="K2:N3"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:E24"/>
@@ -3308,6 +3664,9 @@
     <mergeCell ref="K26:N28"/>
     <mergeCell ref="K50:N52"/>
     <mergeCell ref="K29:N31"/>
+    <mergeCell ref="K32:N34"/>
+    <mergeCell ref="K47:N48"/>
+    <mergeCell ref="K35:N37"/>
     <mergeCell ref="K62:N64"/>
     <mergeCell ref="J56:J58"/>
     <mergeCell ref="E56:E58"/>
@@ -3334,60 +3693,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C34ECFC-0972-4818-B8E8-830E30CFF2A4}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A3" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="15" width="11.33203125" customWidth="1"/>
+    <col min="1" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="15" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="22" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3418,12 +3777,12 @@
       <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3795,7 @@
       <c r="D4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -3451,17 +3810,17 @@
       <c r="I4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -3474,7 +3833,7 @@
       <c r="D5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
@@ -3487,13 +3846,13 @@
       <c r="I5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="19"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +3865,7 @@
       <c r="D6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
@@ -3519,13 +3878,13 @@
       <c r="I6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="19"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3897,7 @@
       <c r="D7" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -3553,17 +3912,17 @@
       <c r="I7" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -3576,7 +3935,7 @@
       <c r="D8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="8" t="s">
         <v>4</v>
       </c>
@@ -3589,13 +3948,13 @@
       <c r="I8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3608,7 +3967,7 @@
       <c r="D9" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3621,13 +3980,13 @@
       <c r="I9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -3640,7 +3999,7 @@
       <c r="D10" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -3655,17 +4014,17 @@
       <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
@@ -3678,7 +4037,7 @@
       <c r="D11" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="8" t="s">
         <v>4</v>
       </c>
@@ -3691,13 +4050,13 @@
       <c r="I11" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -3710,7 +4069,7 @@
       <c r="D12" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="8" t="s">
         <v>8</v>
       </c>
@@ -3723,53 +4082,53 @@
       <c r="I12" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3800,12 +4159,12 @@
       <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
@@ -3818,7 +4177,7 @@
       <c r="D16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="19" t="s">
         <v>139</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -3833,31 +4192,31 @@
       <c r="I16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-    </row>
-    <row r="17" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+    </row>
+    <row r="17" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
@@ -3870,7 +4229,7 @@
       <c r="D17" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="8" t="s">
         <v>60</v>
       </c>
@@ -3883,27 +4242,27 @@
       <c r="I17" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="5"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+    </row>
+    <row r="18" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
@@ -3916,7 +4275,7 @@
       <c r="D18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="8" t="s">
         <v>64</v>
       </c>
@@ -3929,27 +4288,27 @@
       <c r="I18" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="12"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="5"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+    </row>
+    <row r="19" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
@@ -3962,7 +4321,7 @@
       <c r="D19" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -3977,17 +4336,17 @@
       <c r="I19" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>60</v>
       </c>
@@ -4000,7 +4359,7 @@
       <c r="D20" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="8" t="s">
         <v>60</v>
       </c>
@@ -4013,13 +4372,13 @@
       <c r="I20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
@@ -4032,7 +4391,7 @@
       <c r="D21" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="8" t="s">
         <v>64</v>
       </c>
@@ -4045,13 +4404,13 @@
       <c r="I21" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>56</v>
       </c>
@@ -4064,7 +4423,7 @@
       <c r="D22" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -4079,17 +4438,17 @@
       <c r="I22" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>60</v>
       </c>
@@ -4102,7 +4461,7 @@
       <c r="D23" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="8" t="s">
         <v>60</v>
       </c>
@@ -4115,13 +4474,13 @@
       <c r="I23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
@@ -4134,7 +4493,7 @@
       <c r="D24" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="8" t="s">
         <v>64</v>
       </c>
@@ -4147,53 +4506,53 @@
       <c r="I24" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4224,12 +4583,12 @@
       <c r="J27" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
@@ -4242,7 +4601,7 @@
       <c r="D28" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -4257,17 +4616,17 @@
       <c r="I28" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
@@ -4280,7 +4639,7 @@
       <c r="D29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="8" t="s">
         <v>39</v>
       </c>
@@ -4293,13 +4652,13 @@
       <c r="I29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>43</v>
       </c>
@@ -4312,7 +4671,7 @@
       <c r="D30" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="8" t="s">
         <v>43</v>
       </c>
@@ -4325,13 +4684,13 @@
       <c r="I30" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -4344,7 +4703,7 @@
       <c r="D31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -4359,17 +4718,17 @@
       <c r="I31" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:28" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:28" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
@@ -4382,7 +4741,7 @@
       <c r="D32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="8" t="s">
         <v>39</v>
       </c>
@@ -4395,13 +4754,13 @@
       <c r="I32" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>43</v>
       </c>
@@ -4414,7 +4773,7 @@
       <c r="D33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="8" t="s">
         <v>43</v>
       </c>
@@ -4427,13 +4786,13 @@
       <c r="I33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
@@ -4446,7 +4805,7 @@
       <c r="D34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -4461,17 +4820,17 @@
       <c r="I34" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
@@ -4484,7 +4843,7 @@
       <c r="D35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="8" t="s">
         <v>39</v>
       </c>
@@ -4497,13 +4856,13 @@
       <c r="I35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>43</v>
       </c>
@@ -4516,7 +4875,7 @@
       <c r="D36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="8" t="s">
         <v>43</v>
       </c>
@@ -4529,18 +4888,18 @@
       <c r="I36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
     <mergeCell ref="K4:N6"/>
@@ -4592,6 +4951,1680 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B923F497-34EE-46D5-8B8B-E9EE7574D226}">
+  <dimension ref="B1:AA54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="O1" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="18"/>
+    </row>
+    <row r="2" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="18"/>
+    </row>
+    <row r="3" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="O3" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+    </row>
+    <row r="4" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="18"/>
+    </row>
+    <row r="5" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="V5" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="W5" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+    </row>
+    <row r="6" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="36">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3.53</v>
+      </c>
+      <c r="K6" s="15">
+        <v>3.54</v>
+      </c>
+      <c r="L6" s="15">
+        <v>3.52</v>
+      </c>
+      <c r="M6" s="35">
+        <v>7700</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="T6" s="44">
+        <v>1500</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="V6" s="48">
+        <v>3.53</v>
+      </c>
+      <c r="W6" s="48">
+        <v>3.54</v>
+      </c>
+      <c r="X6" s="48">
+        <v>3.52</v>
+      </c>
+      <c r="Y6" s="44">
+        <v>7700</v>
+      </c>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+    </row>
+    <row r="7" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="15">
+        <v>4.91</v>
+      </c>
+      <c r="K7" s="15">
+        <v>4.93</v>
+      </c>
+      <c r="L7" s="15">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="T7" s="44"/>
+      <c r="U7" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="V7" s="48">
+        <v>4.91</v>
+      </c>
+      <c r="W7" s="48">
+        <v>4.93</v>
+      </c>
+      <c r="X7" s="48">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+    </row>
+    <row r="8" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="J8" s="15">
+        <v>7.49</v>
+      </c>
+      <c r="K8" s="15">
+        <v>9.68</v>
+      </c>
+      <c r="L8" s="15">
+        <v>6.04</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="V8" s="48">
+        <v>7.49</v>
+      </c>
+      <c r="W8" s="48">
+        <v>9.68</v>
+      </c>
+      <c r="X8" s="48">
+        <v>6.04</v>
+      </c>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+    </row>
+    <row r="9" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1350</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9" s="15">
+        <v>3.54</v>
+      </c>
+      <c r="K9" s="15">
+        <v>3.82</v>
+      </c>
+      <c r="L9" s="15">
+        <v>3.53</v>
+      </c>
+      <c r="M9" s="35">
+        <v>6600</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="T9" s="44">
+        <v>1350</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="V9" s="48">
+        <v>3.54</v>
+      </c>
+      <c r="W9" s="48">
+        <v>3.82</v>
+      </c>
+      <c r="X9" s="48">
+        <v>3.53</v>
+      </c>
+      <c r="Y9" s="44">
+        <v>6600</v>
+      </c>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+    </row>
+    <row r="10" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="15">
+        <v>16.7</v>
+      </c>
+      <c r="K10" s="15">
+        <v>714</v>
+      </c>
+      <c r="L10" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="T10" s="44"/>
+      <c r="U10" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="V10" s="48">
+        <v>16.7</v>
+      </c>
+      <c r="W10" s="48">
+        <v>714</v>
+      </c>
+      <c r="X10" s="48">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+    </row>
+    <row r="11" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="J11" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="K11" s="15">
+        <v>943</v>
+      </c>
+      <c r="L11" s="15">
+        <v>7.28</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="V11" s="48">
+        <v>24.1</v>
+      </c>
+      <c r="W11" s="48">
+        <v>943</v>
+      </c>
+      <c r="X11" s="48">
+        <v>7.28</v>
+      </c>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+    </row>
+    <row r="12" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="36">
+        <v>700</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12" s="15">
+        <v>69.8</v>
+      </c>
+      <c r="K12" s="15">
+        <v>80.8</v>
+      </c>
+      <c r="L12" s="15">
+        <v>58.9</v>
+      </c>
+      <c r="M12" s="35">
+        <v>3600</v>
+      </c>
+      <c r="O12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>13881</v>
+      </c>
+      <c r="R12" s="46">
+        <v>18994</v>
+      </c>
+      <c r="S12" s="46">
+        <v>46023</v>
+      </c>
+      <c r="T12" s="44">
+        <v>700</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="V12" s="48">
+        <v>69.8</v>
+      </c>
+      <c r="W12" s="48">
+        <v>80.8</v>
+      </c>
+      <c r="X12" s="48">
+        <v>58.9</v>
+      </c>
+      <c r="Y12" s="44">
+        <v>3600</v>
+      </c>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+    </row>
+    <row r="13" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" s="15">
+        <v>161</v>
+      </c>
+      <c r="K13" s="15">
+        <v>177</v>
+      </c>
+      <c r="L13" s="15">
+        <v>141</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>28185</v>
+      </c>
+      <c r="R13" s="46">
+        <v>19815</v>
+      </c>
+      <c r="S13" s="46">
+        <v>43525</v>
+      </c>
+      <c r="T13" s="44"/>
+      <c r="U13" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="V13" s="48">
+        <v>161</v>
+      </c>
+      <c r="W13" s="48">
+        <v>177</v>
+      </c>
+      <c r="X13" s="48">
+        <v>141</v>
+      </c>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+    </row>
+    <row r="14" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="J14" s="15">
+        <v>3.53</v>
+      </c>
+      <c r="K14" s="15">
+        <v>3.54</v>
+      </c>
+      <c r="L14" s="15">
+        <v>3.52</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q14" s="47">
+        <v>45935</v>
+      </c>
+      <c r="R14" s="46">
+        <v>42248</v>
+      </c>
+      <c r="S14" s="46">
+        <v>23833</v>
+      </c>
+      <c r="T14" s="44"/>
+      <c r="U14" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="V14" s="48">
+        <v>3.53</v>
+      </c>
+      <c r="W14" s="48">
+        <v>3.54</v>
+      </c>
+      <c r="X14" s="48">
+        <v>3.52</v>
+      </c>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+    </row>
+    <row r="15" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="18"/>
+    </row>
+    <row r="18" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="18"/>
+    </row>
+    <row r="19" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="P19" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+    </row>
+    <row r="20" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="18"/>
+    </row>
+    <row r="21" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q21" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="U21" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="V21" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="W21" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="X21" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y21" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+    </row>
+    <row r="22" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="T22" s="38">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="V22" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="W22" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="X22" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y22" s="38">
+        <v>6500</v>
+      </c>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+    </row>
+    <row r="23" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="44"/>
+      <c r="P23" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="S23" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="T23" s="38"/>
+      <c r="U23" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="V23" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="W23" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="X23" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+    </row>
+    <row r="24" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="44"/>
+      <c r="P24" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="R24" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="S24" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="T24" s="38"/>
+      <c r="U24" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="V24" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="W24" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+    </row>
+    <row r="25" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="R25" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="S25" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="T25" s="38">
+        <v>1000</v>
+      </c>
+      <c r="U25" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="V25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="X25" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y25" s="38">
+        <v>5500</v>
+      </c>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+    </row>
+    <row r="26" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="44"/>
+      <c r="P26" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="T26" s="38"/>
+      <c r="U26" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="V26" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="W26" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="X26" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+    </row>
+    <row r="27" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="44"/>
+      <c r="P27" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="T27" s="38"/>
+      <c r="U27" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="V27" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="W27" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="X27" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+    </row>
+    <row r="28" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="R28" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="T28" s="38">
+        <v>1000</v>
+      </c>
+      <c r="U28" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="V28" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="W28" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="X28" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y28" s="38">
+        <v>3700</v>
+      </c>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+    </row>
+    <row r="29" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="44"/>
+      <c r="P29" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="S29" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="T29" s="38"/>
+      <c r="U29" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="V29" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="W29" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="X29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+    </row>
+    <row r="30" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="44"/>
+      <c r="P30" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="R30" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="S30" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="T30" s="38"/>
+      <c r="U30" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="V30" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="W30" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="X30" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+    </row>
+    <row r="31" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+    </row>
+    <row r="32" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="16"/>
+    </row>
+    <row r="33" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="AA33" s="18"/>
+    </row>
+    <row r="34" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="18"/>
+    </row>
+    <row r="35" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+    </row>
+    <row r="36" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="18"/>
+    </row>
+    <row r="37" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="P37" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q37" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="R37" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="S37" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="T37" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="U37" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="V37" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="W37" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="X37" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y37" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+    </row>
+    <row r="38" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q38" s="37">
+        <v>7.0899999999999999E-4</v>
+      </c>
+      <c r="R38" s="37">
+        <v>5.6899999999999997E-3</v>
+      </c>
+      <c r="S38" s="37">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="T38" s="38">
+        <v>500</v>
+      </c>
+      <c r="U38" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="V38" s="37">
+        <v>3.51</v>
+      </c>
+      <c r="W38" s="37">
+        <v>3.98</v>
+      </c>
+      <c r="X38" s="37">
+        <v>3.33</v>
+      </c>
+      <c r="Y38" s="38">
+        <v>7300</v>
+      </c>
+      <c r="AA38" s="18"/>
+    </row>
+    <row r="39" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="44"/>
+      <c r="P39" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q39" s="37">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="R39" s="37">
+        <v>9.9100000000000004E-3</v>
+      </c>
+      <c r="S39" s="37">
+        <v>9.5E-4</v>
+      </c>
+      <c r="T39" s="38"/>
+      <c r="U39" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="V39" s="37">
+        <v>6.88</v>
+      </c>
+      <c r="W39" s="37">
+        <v>122</v>
+      </c>
+      <c r="X39" s="37">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+    </row>
+    <row r="40" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O40" s="44"/>
+      <c r="P40" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q40" s="37">
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="R40" s="37">
+        <v>4.41E-2</v>
+      </c>
+      <c r="S40" s="37">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="T40" s="38"/>
+      <c r="U40" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="V40" s="37">
+        <v>9.86</v>
+      </c>
+      <c r="W40" s="37">
+        <v>198</v>
+      </c>
+      <c r="X40" s="37">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+    </row>
+    <row r="41" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q41" s="37">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="R41" s="37">
+        <v>3.32E-2</v>
+      </c>
+      <c r="S41" s="37">
+        <v>4.8599999999999997E-3</v>
+      </c>
+      <c r="T41" s="38">
+        <v>500</v>
+      </c>
+      <c r="U41" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="V41" s="37">
+        <v>3.53</v>
+      </c>
+      <c r="W41" s="37">
+        <v>3.72</v>
+      </c>
+      <c r="X41" s="37">
+        <v>3.51</v>
+      </c>
+      <c r="Y41" s="38">
+        <v>6250</v>
+      </c>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+    </row>
+    <row r="42" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="44"/>
+      <c r="P42" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q42" s="37">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="R42" s="37">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="S42" s="37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T42" s="38"/>
+      <c r="U42" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="V42" s="37">
+        <v>8.39</v>
+      </c>
+      <c r="W42" s="37">
+        <v>142</v>
+      </c>
+      <c r="X42" s="37">
+        <v>4.87</v>
+      </c>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+    </row>
+    <row r="43" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="44"/>
+      <c r="P43" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q43" s="37">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="R43" s="37">
+        <v>0.17</v>
+      </c>
+      <c r="S43" s="37">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T43" s="38"/>
+      <c r="U43" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="V43" s="37">
+        <v>12.7</v>
+      </c>
+      <c r="W43" s="37">
+        <v>188</v>
+      </c>
+      <c r="X43" s="37">
+        <v>4.99</v>
+      </c>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+    </row>
+    <row r="44" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q44" s="37">
+        <v>1.04</v>
+      </c>
+      <c r="R44" s="37">
+        <v>1.33</v>
+      </c>
+      <c r="S44" s="37">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="T44" s="38">
+        <v>500</v>
+      </c>
+      <c r="U44" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="V44" s="37">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="W44" s="37">
+        <v>58.5</v>
+      </c>
+      <c r="X44" s="37">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Y44" s="38">
+        <v>4000</v>
+      </c>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+    </row>
+    <row r="45" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="44"/>
+      <c r="P45" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q45" s="37">
+        <v>2.62</v>
+      </c>
+      <c r="R45" s="37">
+        <v>4.53</v>
+      </c>
+      <c r="S45" s="37">
+        <v>1.88</v>
+      </c>
+      <c r="T45" s="38"/>
+      <c r="U45" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="V45" s="37">
+        <v>54.3</v>
+      </c>
+      <c r="W45" s="37">
+        <v>151</v>
+      </c>
+      <c r="X45" s="37">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+    </row>
+    <row r="46" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="44"/>
+      <c r="P46" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q46" s="37">
+        <v>6.25</v>
+      </c>
+      <c r="R46" s="37">
+        <v>37.5</v>
+      </c>
+      <c r="S46" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="T46" s="38"/>
+      <c r="U46" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="V46" s="37">
+        <v>86.8</v>
+      </c>
+      <c r="W46" s="37">
+        <v>194</v>
+      </c>
+      <c r="X46" s="37">
+        <v>8.42</v>
+      </c>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+    </row>
+    <row r="47" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="15:27" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="D3:H4"/>
+    <mergeCell ref="I3:M4"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="O1:Y2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:T4"/>
+    <mergeCell ref="U3:Y4"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="O17:Y18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:T20"/>
+    <mergeCell ref="U19:Y20"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="Y22:Y24"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="Y28:Y30"/>
+    <mergeCell ref="O33:Y34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:T36"/>
+    <mergeCell ref="U35:Y36"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="Y38:Y40"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="Y41:Y43"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="T44:T46"/>
+    <mergeCell ref="Y44:Y46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA180E0-5F67-487B-BE4B-07A05585687C}">
   <dimension ref="A1:N65"/>
   <sheetViews>
@@ -4599,58 +6632,58 @@
       <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="13" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4682,7 +6715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -4695,7 +6728,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -4710,17 +6743,17 @@
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4733,7 +6766,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4746,13 +6779,13 @@
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4765,7 +6798,7 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4778,21 +6811,21 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +6838,7 @@
       <c r="D11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -4820,17 +6853,17 @@
       <c r="I11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4843,7 +6876,7 @@
       <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4856,13 +6889,13 @@
       <c r="I12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4875,7 +6908,7 @@
       <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4888,13 +6921,13 @@
       <c r="I13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -4907,7 +6940,7 @@
       <c r="D14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4922,17 +6955,17 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4945,7 +6978,7 @@
       <c r="D15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4958,13 +6991,13 @@
       <c r="I15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -4977,7 +7010,7 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
@@ -4990,13 +7023,13 @@
       <c r="I16" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -5009,7 +7042,7 @@
       <c r="D17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -5024,17 +7057,17 @@
       <c r="I17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5047,7 +7080,7 @@
       <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
@@ -5060,13 +7093,13 @@
       <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -5079,7 +7112,7 @@
       <c r="D19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
@@ -5092,56 +7125,56 @@
       <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="13" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -5173,7 +7206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -5186,7 +7219,7 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -5201,17 +7234,17 @@
       <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -5224,7 +7257,7 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
@@ -5237,13 +7270,13 @@
       <c r="I27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -5256,7 +7289,7 @@
       <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="3" t="s">
         <v>64</v>
       </c>
@@ -5269,13 +7302,13 @@
       <c r="I28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -5288,7 +7321,7 @@
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -5303,17 +7336,17 @@
       <c r="I29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -5326,7 +7359,7 @@
       <c r="D30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
@@ -5339,13 +7372,13 @@
       <c r="I30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -5358,7 +7391,7 @@
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="3" t="s">
         <v>64</v>
       </c>
@@ -5371,13 +7404,13 @@
       <c r="I31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -5390,7 +7423,7 @@
       <c r="D32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="19" t="s">
         <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -5405,17 +7438,17 @@
       <c r="I32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5428,7 +7461,7 @@
       <c r="D33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5441,13 +7474,13 @@
       <c r="I33" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -5460,7 +7493,7 @@
       <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="5" t="s">
         <v>64</v>
       </c>
@@ -5473,13 +7506,13 @@
       <c r="I34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -5492,7 +7525,7 @@
       <c r="D35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="19" t="s">
         <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -5507,17 +7540,17 @@
       <c r="I35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5530,7 +7563,7 @@
       <c r="D36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
@@ -5543,13 +7576,13 @@
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -5562,7 +7595,7 @@
       <c r="D37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
@@ -5575,13 +7608,13 @@
       <c r="I37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -5594,7 +7627,7 @@
       <c r="D38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -5609,17 +7642,17 @@
       <c r="I38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -5632,7 +7665,7 @@
       <c r="D39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
@@ -5645,13 +7678,13 @@
       <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5664,7 +7697,7 @@
       <c r="D40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5677,59 +7710,59 @@
       <c r="I40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="13" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+    </row>
+    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -5761,7 +7794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -5774,7 +7807,7 @@
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -5789,17 +7822,17 @@
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+    </row>
+    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -5812,7 +7845,7 @@
       <c r="D51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
@@ -5825,13 +7858,13 @@
       <c r="I51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+    </row>
+    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5844,7 +7877,7 @@
       <c r="D52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5857,16 +7890,16 @@
       <c r="I52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -5879,7 +7912,7 @@
       <c r="D56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -5894,17 +7927,17 @@
       <c r="I56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -5917,7 +7950,7 @@
       <c r="D57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="1" t="s">
         <v>39</v>
       </c>
@@ -5930,13 +7963,13 @@
       <c r="I57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+    </row>
+    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -5949,7 +7982,7 @@
       <c r="D58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="3" t="s">
         <v>43</v>
       </c>
@@ -5962,54 +7995,54 @@
       <c r="I58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J59" s="7"/>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K62" s="12" t="s">
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+    </row>
+    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+    </row>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="48">
     <mergeCell ref="A2:J2"/>
